--- a/README.assets/심화_REST API.xlsx
+++ b/README.assets/심화_REST API.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonghoonKang\Desktop\Loveline\README.assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="REST API" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="코스 추천방식" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="음식점 분류" sheetId="3" r:id="rId6"/>
+    <sheet name="REST API" sheetId="1" r:id="rId1"/>
+    <sheet name="코스 추천방식" sheetId="2" r:id="rId2"/>
+    <sheet name="음식점 분류" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -276,15 +284,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">area (선택) </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFA61C00"/>
         <rFont val="Arial"/>
-        <color rgb="FFA61C00"/>
       </rPr>
       <t>km</t>
     </r>
@@ -845,21 +855,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA61C00"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="14">
@@ -867,7 +893,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -943,7 +969,13 @@
     </fill>
   </fills>
   <borders count="27">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -954,19 +986,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -978,19 +1019,28 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -999,24 +1049,38 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1025,38 +1089,49 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1066,27 +1141,34 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1096,352 +1178,386 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="104">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1631,27 +1747,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.0"/>
-    <col customWidth="1" min="3" max="3" width="59.86"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
-    <col customWidth="1" min="8" max="8" width="38.71"/>
-    <col customWidth="1" min="10" max="10" width="52.71"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,1077 +1805,1137 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="K2" s="99"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="90"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="J3" s="90"/>
+      <c r="K3" s="100"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
-        <v>26.0</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="J4" s="90"/>
+      <c r="K4" s="101"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17" t="s">
+      <c r="J5" s="90"/>
+      <c r="K5" s="100"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="90"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="J6" s="88"/>
+      <c r="K6" s="102"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="90"/>
+      <c r="B7" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="25" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="90"/>
+      <c r="B9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="26" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="33"/>
-      <c r="B11" s="25" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="35" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="33" t="s">
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="90"/>
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="11" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="90"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="11" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="41"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="17" t="s">
+      <c r="J14" s="30"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="90"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="17" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="42" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="90"/>
+      <c r="B16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="90"/>
+      <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="45"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="17" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="90"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
+      <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="46"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="90"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="47"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="11" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="90"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="38"/>
-      <c r="E22" s="11" t="s">
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="90"/>
+      <c r="B22" s="28"/>
+      <c r="E22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="25" t="s">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="90"/>
+      <c r="B23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="26" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="4" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="90"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="90"/>
+      <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="4" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="90"/>
+      <c r="B26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="45"/>
-      <c r="C27" s="17" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="90"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="4" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="90"/>
+      <c r="B28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="45"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="17" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="90"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="53" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="60" t="s">
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="90"/>
+      <c r="B32" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64">
-        <v>123.12314</v>
-      </c>
-      <c r="I32" s="61" t="s">
+      <c r="G32" s="52"/>
+      <c r="H32" s="53">
+        <v>123.12314000000001</v>
+      </c>
+      <c r="I32" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="J32" s="65"/>
-      <c r="K32" s="66"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="67"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="11" t="s">
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="90"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="11">
-        <v>36.23429</v>
-      </c>
-      <c r="I33" s="11" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="6">
+        <v>36.234290000000001</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="68"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="67"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="11" t="s">
+      <c r="J33" s="30"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="90"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="I34" s="11" t="s">
+      <c r="G34" s="29"/>
+      <c r="H34" s="6">
+        <v>100</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="40"/>
-      <c r="K34" s="68"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="67"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="11" t="s">
+      <c r="J34" s="30"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="90"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="I35" s="11" t="s">
+      <c r="G35" s="29"/>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="40"/>
-      <c r="K35" s="68"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71" t="s">
+      <c r="J35" s="30"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="90"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="72" t="s">
+      <c r="G36" s="59"/>
+      <c r="H36" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="72" t="s">
+      <c r="I36" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="J36" s="73"/>
-      <c r="K36" s="74"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="52"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="43" t="s">
+      <c r="J36" s="62"/>
+      <c r="K36" s="63"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="76" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="90"/>
+      <c r="B39" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="66"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="78"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="11" t="s">
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="55"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="90"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="68"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="80"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="57"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="90"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="68"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="80"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="57"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="90"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
       <c r="E42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="68"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="81" t="s">
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="57"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="90"/>
+      <c r="B43" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="72" t="s">
+      <c r="F43" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="74"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="76" t="s">
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="63"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="90"/>
+      <c r="B44" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="61" t="s">
+      <c r="F44" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="61" t="s">
+      <c r="G44" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="66"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="81"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="72" t="s">
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="55"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="90"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="74"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="60" t="s">
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="63"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="90"/>
+      <c r="B46" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="83" t="s">
+      <c r="D46" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="61" t="s">
+      <c r="F46" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="61" t="s">
+      <c r="G46" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="66"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="69"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="84" t="s">
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="90"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="72" t="s">
+      <c r="F47" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="74"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="54" t="s">
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="63"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="90"/>
+      <c r="B48" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E48" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F48" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="59"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="60" t="s">
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="90"/>
+      <c r="B49" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="61" t="s">
+      <c r="E49" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="61" t="s">
+      <c r="F49" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="66"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="67"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="68"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="67"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="68"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="67"/>
-      <c r="C52" s="11" t="s">
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="55"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="90"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="57"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="90"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="57"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="90"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="68"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="87"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="11" t="s">
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="57"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="90"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="68"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="67"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="11" t="s">
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="57"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="90"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="68"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="67"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="11" t="s">
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="57"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="90"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="68"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="69"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="84" t="s">
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="57"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="90"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="72" t="s">
+      <c r="F56" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="72"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="74"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="79"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="63"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="90"/>
+      <c r="B57" s="68"/>
       <c r="C57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="79"/>
+      <c r="D57" s="68"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="90"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="88" t="s">
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="79"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A12:A29"/>
@@ -2765,666 +2944,667 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B4:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="9.0"/>
-    <col customWidth="1" min="4" max="4" width="24.14"/>
-    <col customWidth="1" min="5" max="5" width="64.29"/>
-    <col customWidth="1" min="6" max="6" width="37.29"/>
-    <col customWidth="1" min="7" max="7" width="51.14"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="64.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="B4" s="88" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="77" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="89">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="89" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="78">
+        <v>1</v>
+      </c>
+      <c r="D5" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="90"/>
-    </row>
-    <row r="6">
-      <c r="C6" s="90"/>
-      <c r="D6" s="88" t="s">
+      <c r="G5" s="79"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="79"/>
+      <c r="D6" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="77" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="90"/>
-    </row>
-    <row r="8">
-      <c r="C8" s="90"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="90"/>
-      <c r="D9" s="88" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="79"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="79"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="79"/>
+      <c r="D9" s="77" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="90"/>
-      <c r="D10" s="88" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="79"/>
+      <c r="D10" s="77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" s="90"/>
-      <c r="D11" s="88" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="79"/>
+      <c r="D11" s="77" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="90"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="90"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="90"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="90"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="90"/>
-    </row>
-    <row r="17">
-      <c r="C17" s="90"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="90"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="90"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="91">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="91" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="79"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="79"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="79"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="79"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="79"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="79"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="79"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="79"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="80">
+        <v>2</v>
+      </c>
+      <c r="D20" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="91" t="s">
+      <c r="F20" s="81"/>
+      <c r="G20" s="80" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21">
-      <c r="C21" s="92"/>
-      <c r="G21" s="88" t="s">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="81"/>
+      <c r="G21" s="77" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" s="92"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="92"/>
-      <c r="E23" s="88" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="81"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="81"/>
+      <c r="E23" s="77" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24">
-      <c r="C24" s="92"/>
-      <c r="E24" s="88" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="81"/>
+      <c r="E24" s="77" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C2:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
-      <c r="C2" s="93" t="s">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="93" t="s">
+      <c r="K2" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="77" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="94" t="s">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="M3" s="94" t="s">
+      <c r="M3" s="83" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="94" t="s">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="83" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="94" t="s">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="94" t="s">
+      <c r="J5" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="94" t="s">
+      <c r="K5" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="M5" s="94" t="s">
+      <c r="M5" s="83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="94" t="s">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="M6" s="94" t="s">
+      <c r="M6" s="83" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="94" t="s">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="83" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" s="94" t="s">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="95" t="s">
+      <c r="K8" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="M8" s="94" t="s">
+      <c r="M8" s="83" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9">
-      <c r="C9" s="94" t="s">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="M9" s="94" t="s">
+      <c r="M9" s="83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="94" t="s">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="M10" s="94" t="s">
+      <c r="M10" s="83" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" s="88" t="s">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="I11" s="94" t="s">
+      <c r="I11" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="95" t="s">
+      <c r="K11" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="M11" s="94" t="s">
+      <c r="M11" s="83" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="94" t="s">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="M12" s="94" t="s">
+      <c r="M12" s="83" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13">
-      <c r="C13" s="94" t="s">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="95" t="s">
+      <c r="K13" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="M13" s="94" t="s">
+      <c r="M13" s="83" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14">
-      <c r="C14" s="94" t="s">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="95" t="s">
+      <c r="K14" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="M14" s="94" t="s">
+      <c r="M14" s="83" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15">
-      <c r="C15" s="94" t="s">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="M15" s="94" t="s">
+      <c r="M15" s="83" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="16">
-      <c r="C16" s="94" t="s">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="K16" s="94" t="s">
+      <c r="K16" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="M16" s="94" t="s">
+      <c r="M16" s="83" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" s="94" t="s">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="94" t="s">
+      <c r="K17" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="M17" s="94" t="s">
+      <c r="M17" s="83" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="18">
-      <c r="C18" s="94" t="s">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="83" t="s">
         <v>235</v>
       </c>
-      <c r="K18" s="94" t="s">
+      <c r="K18" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="M18" s="94" t="s">
+      <c r="M18" s="83" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="94" t="s">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="K19" s="94" t="s">
+      <c r="K19" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="M19" s="94" t="s">
+      <c r="M19" s="83" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" s="94" t="s">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="M20" s="94" t="s">
+      <c r="M20" s="83" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="21">
-      <c r="C21" s="94" t="s">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="83" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" s="94" t="s">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="83" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23">
-      <c r="C23" s="94" t="s">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="83" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24">
-      <c r="C24" s="94" t="s">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="83" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="94" t="s">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="83" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26">
-      <c r="C26" s="94" t="s">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="83" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27">
-      <c r="C27" s="94" t="s">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="83" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28">
-      <c r="C28" s="94" t="s">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="83" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="29">
-      <c r="C29" s="94" t="s">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="83" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30">
-      <c r="C30" s="94" t="s">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="83" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="31">
-      <c r="C31" s="94" t="s">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="83" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32">
-      <c r="C32" s="94" t="s">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="83" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="33">
-      <c r="C33" s="94" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="83" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34">
-      <c r="C34" s="94" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="83" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="35">
-      <c r="C35" s="94" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="83" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="36">
-      <c r="C36" s="94" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="83" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="37">
-      <c r="C37" s="94" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="83" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="38">
-      <c r="C38" s="94" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="83" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39">
-      <c r="C39" s="94" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="83" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="40">
-      <c r="C40" s="94" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="83" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41">
-      <c r="C41" s="94" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="83" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="42">
-      <c r="C42" s="94" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="83" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="43">
-      <c r="C43" s="94" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="83" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="44">
-      <c r="C44" s="94" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="83" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="45">
-      <c r="C45" s="94" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="83" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="46">
-      <c r="C46" s="94" t="s">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="83" t="s">
         <v>267</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>